--- a/similar/teste.xlsx
+++ b/similar/teste.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\PycharmProjects\pythonProject\comercial\similar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E13FFE9D-668C-444B-A395-7D456846400A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129BEFEE-44D9-40AE-8BBE-69EAFEF18517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teste" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>a</t>
+    <t>S0AB</t>
   </si>
   <si>
-    <t>b</t>
+    <t>S0CD</t>
   </si>
   <si>
-    <t>c</t>
+    <t>S0FG</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Z0AB</t>
   </si>
   <si>
-    <t>y</t>
+    <t>Z0CD</t>
+  </si>
+  <si>
+    <t>Z0FG</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>SIMILAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,45 +883,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
